--- a/WebApplication1/WebApplication1/Resources/Excel.xlsx
+++ b/WebApplication1/WebApplication1/Resources/Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\source\repos\Service\WebApplication1\WebApplication1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2114DD3-9D46-40A6-948C-0249375485B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0179CC79-AFE3-412E-B17F-D5F89499F836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Submit</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Arabian</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>lblSubmit</t>
+  </si>
+  <si>
+    <t>Сохранить</t>
   </si>
 </sst>
 </file>
@@ -345,20 +363,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/WebApplication1/WebApplication1/Resources/Excel.xlsx
+++ b/WebApplication1/WebApplication1/Resources/Excel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\source\repos\Service\WebApplication1\WebApplication1\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Service\WebApplication1\WebApplication1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0179CC79-AFE3-412E-B17F-D5F89499F836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Submit</t>
   </si>
@@ -46,19 +45,27 @@
   </si>
   <si>
     <t>Сохранить</t>
+  </si>
+  <si>
+    <t>إرسال</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,8 +88,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -362,20 +372,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -389,12 +399,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="23.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -402,5 +415,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WebApplication1/WebApplication1/Resources/Excel.xlsx
+++ b/WebApplication1/WebApplication1/Resources/Excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Service\WebApplication1\WebApplication1\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\source\repos\ServiceGit\WebApplication1\WebApplication1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D44520-8F5D-4749-8864-DFAF97439F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Submit</t>
   </si>
@@ -47,25 +48,20 @@
     <t>Сохранить</t>
   </si>
   <si>
-    <t>إرسال</t>
+    <t>lblSubmit2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF202124"/>
-      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,11 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -372,20 +365,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -399,17 +393,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
